--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC22-EQUIPO 3.5 TIT IRENE #4.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC22-EQUIPO 3.5 TIT IRENE #4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2281F37B-ED34-4696-BB58-773CC71923AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{15BA5277-5307-4C28-B401-7871F8DAE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="405" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -915,9 +904,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1311,7 +1300,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1329,7 +1318,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1465,7 +1454,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,9 +1611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1662,7 +1651,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1768,7 +1757,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1910,7 +1899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1920,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2001,7 +1990,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="59">
         <f ca="1">NOW()</f>
-        <v>45394.790391550923</v>
+        <v>45397.873104166669</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1</v>
@@ -2547,7 +2536,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="46">
-        <v>220243168</v>
+        <v>210835158</v>
       </c>
       <c r="C41" s="65" t="s">
         <v>152</v>
